--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.510923</v>
+        <v>15.07164033333333</v>
       </c>
       <c r="H2">
-        <v>25.532769</v>
+        <v>45.214921</v>
       </c>
       <c r="I2">
-        <v>0.028708534116067</v>
+        <v>0.04362521826456533</v>
       </c>
       <c r="J2">
-        <v>0.028708534116067</v>
+        <v>0.04362521826456534</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N2">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O2">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P2">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q2">
-        <v>197.3274831463177</v>
+        <v>184.3631269865242</v>
       </c>
       <c r="R2">
-        <v>1775.947348316859</v>
+        <v>1659.268142878718</v>
       </c>
       <c r="S2">
-        <v>0.01210409413377995</v>
+        <v>0.0113651379988263</v>
       </c>
       <c r="T2">
-        <v>0.01210409413377995</v>
+        <v>0.0113651379988263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.510923</v>
+        <v>15.07164033333333</v>
       </c>
       <c r="H3">
-        <v>25.532769</v>
+        <v>45.214921</v>
       </c>
       <c r="I3">
-        <v>0.028708534116067</v>
+        <v>0.04362521826456533</v>
       </c>
       <c r="J3">
-        <v>0.028708534116067</v>
+        <v>0.04362521826456534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P3">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q3">
-        <v>98.43248702886433</v>
+        <v>174.3100062842234</v>
       </c>
       <c r="R3">
-        <v>885.892383259779</v>
+        <v>1568.790056558011</v>
       </c>
       <c r="S3">
-        <v>0.006037861882300512</v>
+        <v>0.01074540939057343</v>
       </c>
       <c r="T3">
-        <v>0.006037861882300511</v>
+        <v>0.01074540939057343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.510923</v>
+        <v>15.07164033333333</v>
       </c>
       <c r="H4">
-        <v>25.532769</v>
+        <v>45.214921</v>
       </c>
       <c r="I4">
-        <v>0.028708534116067</v>
+        <v>0.04362521826456533</v>
       </c>
       <c r="J4">
-        <v>0.028708534116067</v>
+        <v>0.04362521826456534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N4">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q4">
-        <v>154.4207088483723</v>
+        <v>304.157829573255</v>
       </c>
       <c r="R4">
-        <v>1389.786379635351</v>
+        <v>2737.420466159294</v>
       </c>
       <c r="S4">
-        <v>0.009472186875863495</v>
+        <v>0.01874992989664469</v>
       </c>
       <c r="T4">
-        <v>0.009472186875863495</v>
+        <v>0.01874992989664469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.510923</v>
+        <v>15.07164033333333</v>
       </c>
       <c r="H5">
-        <v>25.532769</v>
+        <v>45.214921</v>
       </c>
       <c r="I5">
-        <v>0.028708534116067</v>
+        <v>0.04362521826456533</v>
       </c>
       <c r="J5">
-        <v>0.028708534116067</v>
+        <v>0.04362521826456534</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N5">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O5">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P5">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q5">
-        <v>17.84135710172134</v>
+        <v>44.84910716970944</v>
       </c>
       <c r="R5">
-        <v>160.572213915492</v>
+        <v>403.641964527385</v>
       </c>
       <c r="S5">
-        <v>0.001094391224123047</v>
+        <v>0.002764740978520909</v>
       </c>
       <c r="T5">
-        <v>0.001094391224123046</v>
+        <v>0.00276474097852091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>754.192673</v>
       </c>
       <c r="I6">
-        <v>0.847999137222769</v>
+        <v>0.7276761574605194</v>
       </c>
       <c r="J6">
-        <v>0.8479991372227691</v>
+        <v>0.7276761574605195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N6">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O6">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P6">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q6">
-        <v>5828.703575804245</v>
+        <v>3075.208724673104</v>
       </c>
       <c r="R6">
-        <v>52458.33218223821</v>
+        <v>27676.87852205793</v>
       </c>
       <c r="S6">
-        <v>0.3575334547145717</v>
+        <v>0.1895724600812346</v>
       </c>
       <c r="T6">
-        <v>0.3575334547145717</v>
+        <v>0.1895724600812346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>754.192673</v>
       </c>
       <c r="I7">
-        <v>0.847999137222769</v>
+        <v>0.7276761574605194</v>
       </c>
       <c r="J7">
-        <v>0.8479991372227691</v>
+        <v>0.7276761574605195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P7">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q7">
         <v>2907.520939163983</v>
@@ -883,10 +883,10 @@
         <v>26167.68845247585</v>
       </c>
       <c r="S7">
-        <v>0.1783477221846574</v>
+        <v>0.1792352801137455</v>
       </c>
       <c r="T7">
-        <v>0.1783477221846574</v>
+        <v>0.1792352801137455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>754.192673</v>
       </c>
       <c r="I8">
-        <v>0.847999137222769</v>
+        <v>0.7276761574605194</v>
       </c>
       <c r="J8">
-        <v>0.8479991372227691</v>
+        <v>0.7276761574605195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N8">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q8">
-        <v>4561.313626928152</v>
+        <v>5073.40500494807</v>
       </c>
       <c r="R8">
-        <v>41051.82264235337</v>
+        <v>45660.64504453263</v>
       </c>
       <c r="S8">
-        <v>0.2797915862185965</v>
+        <v>0.3127520613673764</v>
       </c>
       <c r="T8">
-        <v>0.2797915862185966</v>
+        <v>0.3127520613673764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>754.192673</v>
       </c>
       <c r="I9">
-        <v>0.847999137222769</v>
+        <v>0.7276761574605194</v>
       </c>
       <c r="J9">
-        <v>0.8479991372227691</v>
+        <v>0.7276761574605195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N9">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O9">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P9">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q9">
-        <v>527.002018562685</v>
+        <v>748.0908352795005</v>
       </c>
       <c r="R9">
-        <v>4743.018167064164</v>
+        <v>6732.817517515505</v>
       </c>
       <c r="S9">
-        <v>0.03232637410494345</v>
+        <v>0.04611635589816291</v>
       </c>
       <c r="T9">
-        <v>0.03232637410494344</v>
+        <v>0.04611635589816292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.750827</v>
+        <v>24.41113566666667</v>
       </c>
       <c r="H10">
-        <v>50.252481</v>
+        <v>73.233407</v>
       </c>
       <c r="I10">
-        <v>0.05650288322451468</v>
+        <v>0.07065860768910215</v>
       </c>
       <c r="J10">
-        <v>0.0565028832245147</v>
+        <v>0.07065860768910216</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N10">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O10">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P10">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q10">
-        <v>388.371335580099</v>
+        <v>298.6080615820784</v>
       </c>
       <c r="R10">
-        <v>3495.342020220891</v>
+        <v>2687.472554238706</v>
       </c>
       <c r="S10">
-        <v>0.02382274952160451</v>
+        <v>0.01840781225027932</v>
       </c>
       <c r="T10">
-        <v>0.02382274952160451</v>
+        <v>0.01840781225027932</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.750827</v>
+        <v>24.41113566666667</v>
       </c>
       <c r="H11">
-        <v>50.252481</v>
+        <v>73.233407</v>
       </c>
       <c r="I11">
-        <v>0.05650288322451468</v>
+        <v>0.07065860768910215</v>
       </c>
       <c r="J11">
-        <v>0.0565028832245147</v>
+        <v>0.07065860768910216</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.696291</v>
       </c>
       <c r="O11">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P11">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q11">
-        <v>193.730522694219</v>
+        <v>282.3252889103819</v>
       </c>
       <c r="R11">
-        <v>1743.574704247971</v>
+        <v>2540.927600193437</v>
       </c>
       <c r="S11">
-        <v>0.01188345609992127</v>
+        <v>0.01740405427848665</v>
       </c>
       <c r="T11">
-        <v>0.01188345609992127</v>
+        <v>0.01740405427848665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.750827</v>
+        <v>24.41113566666667</v>
       </c>
       <c r="H12">
-        <v>50.252481</v>
+        <v>73.233407</v>
       </c>
       <c r="I12">
-        <v>0.05650288322451468</v>
+        <v>0.07065860768910215</v>
       </c>
       <c r="J12">
-        <v>0.0565028832245147</v>
+        <v>0.07065860768910216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N12">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q12">
-        <v>303.924096027711</v>
+        <v>492.6363605804999</v>
       </c>
       <c r="R12">
-        <v>2735.316864249399</v>
+        <v>4433.727245224499</v>
       </c>
       <c r="S12">
-        <v>0.01864274458472481</v>
+        <v>0.03036876360665208</v>
       </c>
       <c r="T12">
-        <v>0.01864274458472482</v>
+        <v>0.03036876360665208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.750827</v>
+        <v>24.41113566666667</v>
       </c>
       <c r="H13">
-        <v>50.252481</v>
+        <v>73.233407</v>
       </c>
       <c r="I13">
-        <v>0.05650288322451468</v>
+        <v>0.07065860768910215</v>
       </c>
       <c r="J13">
-        <v>0.0565028832245147</v>
+        <v>0.07065860768910216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N13">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O13">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P13">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q13">
-        <v>35.114579964612</v>
+        <v>72.64090805214389</v>
       </c>
       <c r="R13">
-        <v>316.031219681508</v>
+        <v>653.768172469295</v>
       </c>
       <c r="S13">
-        <v>0.002153933018264104</v>
+        <v>0.004477977553684103</v>
       </c>
       <c r="T13">
-        <v>0.002153933018264104</v>
+        <v>0.004477977553684105</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.800378</v>
+        <v>54.59966466666666</v>
       </c>
       <c r="H14">
-        <v>59.40113400000001</v>
+        <v>163.798994</v>
       </c>
       <c r="I14">
-        <v>0.06678944543664918</v>
+        <v>0.158040016585813</v>
       </c>
       <c r="J14">
-        <v>0.06678944543664919</v>
+        <v>0.158040016585813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N14">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O14">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P14">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q14">
-        <v>459.075796606986</v>
+        <v>667.8878136508724</v>
       </c>
       <c r="R14">
-        <v>4131.682169462874</v>
+        <v>6010.990322857852</v>
       </c>
       <c r="S14">
-        <v>0.02815977059085432</v>
+        <v>0.04117220885731328</v>
       </c>
       <c r="T14">
-        <v>0.02815977059085432</v>
+        <v>0.04117220885731328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.800378</v>
+        <v>54.59966466666666</v>
       </c>
       <c r="H15">
-        <v>59.40113400000001</v>
+        <v>163.798994</v>
       </c>
       <c r="I15">
-        <v>0.06678944543664918</v>
+        <v>0.158040016585813</v>
       </c>
       <c r="J15">
-        <v>0.06678944543664919</v>
+        <v>0.158040016585813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.696291</v>
       </c>
       <c r="O15">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P15">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q15">
-        <v>228.999892332666</v>
+        <v>631.4686179256948</v>
       </c>
       <c r="R15">
-        <v>2060.999030993994</v>
+        <v>5683.217561331254</v>
       </c>
       <c r="S15">
-        <v>0.01404688393742273</v>
+        <v>0.03892713310931319</v>
       </c>
       <c r="T15">
-        <v>0.01404688393742273</v>
+        <v>0.03892713310931319</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.800378</v>
+        <v>54.59966466666666</v>
       </c>
       <c r="H16">
-        <v>59.40113400000001</v>
+        <v>163.798994</v>
       </c>
       <c r="I16">
-        <v>0.06678944543664918</v>
+        <v>0.158040016585813</v>
       </c>
       <c r="J16">
-        <v>0.06678944543664919</v>
+        <v>0.158040016585813</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N16">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O16">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P16">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q16">
-        <v>359.254619766354</v>
+        <v>1101.865167503502</v>
       </c>
       <c r="R16">
-        <v>3233.291577897186</v>
+        <v>9916.786507531517</v>
       </c>
       <c r="S16">
-        <v>0.02203672629029029</v>
+        <v>0.06792491475636825</v>
       </c>
       <c r="T16">
-        <v>0.02203672629029029</v>
+        <v>0.06792491475636823</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.800378</v>
+        <v>54.59966466666666</v>
       </c>
       <c r="H17">
-        <v>59.40113400000001</v>
+        <v>163.798994</v>
       </c>
       <c r="I17">
-        <v>0.06678944543664918</v>
+        <v>0.158040016585813</v>
       </c>
       <c r="J17">
-        <v>0.06678944543664919</v>
+        <v>0.158040016585813</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N17">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O17">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P17">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q17">
-        <v>41.50732119736801</v>
+        <v>162.4737691390989</v>
       </c>
       <c r="R17">
-        <v>373.565890776312</v>
+        <v>1462.26392225189</v>
       </c>
       <c r="S17">
-        <v>0.002546064618081852</v>
+        <v>0.01001575986281831</v>
       </c>
       <c r="T17">
-        <v>0.002546064618081852</v>
+        <v>0.01001575986281831</v>
       </c>
     </row>
   </sheetData>
